--- a/OS_PVRP_CPSC_464/DrSam PVRP Workspace/Zeus/data/PVRP/results/OUTPUT_input_2.xlsx
+++ b/OS_PVRP_CPSC_464/DrSam PVRP Workspace/Zeus/data/PVRP/results/OUTPUT_input_2.xlsx
@@ -63,19 +63,818 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="B1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="n">
         <v>-29.729999542236328</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C2" t="n">
         <v>64.13600158691406</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D2" t="n">
         <v>12.0</v>
       </c>
-      <c r="E1" t="n">
-        <v>4.0</v>
+      <c r="E2" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-30.663999557495117</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.4629998207092285</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>51.641998291015625</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.468999862670898</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-13.170999526977539</v>
+      </c>
+      <c r="C5" t="n">
+        <v>69.33599853515625</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-67.41300201416016</v>
+      </c>
+      <c r="C6" t="n">
+        <v>68.322998046875</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>48.90700149536133</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.27400016784668</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.243000030517578</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22.260000228881836</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-65.00199890136719</v>
+      </c>
+      <c r="C9" t="n">
+        <v>77.23400115966797</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-4.175000190734863</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.569000005722046</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>23.02899932861328</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.638999938964844</v>
+      </c>
+      <c r="D11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>25.48200035095215</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.2870001792907715</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-42.6150016784668</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-26.392000198364258</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-76.6719970703125</v>
+      </c>
+      <c r="C14" t="n">
+        <v>99.34100341796875</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-20.67300033569336</v>
+      </c>
+      <c r="C15" t="n">
+        <v>57.891998291015625</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-52.03900146484375</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.566999912261963</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-41.375999450683594</v>
+      </c>
+      <c r="C17" t="n">
+        <v>50.82400131225586</v>
+      </c>
+      <c r="D17" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-91.94300079345703</v>
+      </c>
+      <c r="C18" t="n">
+        <v>27.58799934387207</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-65.11799621582031</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30.211999893188477</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18.597000122070312</v>
+      </c>
+      <c r="C20" t="n">
+        <v>96.71600341796875</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-40.94200134277344</v>
+      </c>
+      <c r="C21" t="n">
+        <v>83.20899963378906</v>
+      </c>
+      <c r="D21" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-37.75600051879883</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-33.32500076293945</v>
+      </c>
+      <c r="D22" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>23.767000198364258</v>
+      </c>
+      <c r="C23" t="n">
+        <v>29.08300018310547</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-43.029998779296875</v>
+      </c>
+      <c r="C24" t="n">
+        <v>20.452999114990234</v>
+      </c>
+      <c r="D24" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-35.297000885009766</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-24.895999908447266</v>
+      </c>
+      <c r="D25" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-54.755001068115234</v>
+      </c>
+      <c r="C26" t="n">
+        <v>14.368000030517578</v>
+      </c>
+      <c r="D26" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-49.32899856567383</v>
+      </c>
+      <c r="C27" t="n">
+        <v>33.374000549316406</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>57.40399932861328</v>
+      </c>
+      <c r="C28" t="n">
+        <v>23.82200050354004</v>
+      </c>
+      <c r="D28" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-22.753999710083008</v>
+      </c>
+      <c r="C29" t="n">
+        <v>55.40800094604492</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-56.62200164794922</v>
+      </c>
+      <c r="C30" t="n">
+        <v>73.33999633789062</v>
+      </c>
+      <c r="D30" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-38.5620002746582</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-3.7049999237060547</v>
+      </c>
+      <c r="D31" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-16.77899932861328</v>
+      </c>
+      <c r="C32" t="n">
+        <v>19.53700065612793</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-11.5600004196167</v>
+      </c>
+      <c r="C33" t="n">
+        <v>11.614999771118164</v>
+      </c>
+      <c r="D33" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-46.54499816894531</v>
+      </c>
+      <c r="C34" t="n">
+        <v>97.9739990234375</v>
+      </c>
+      <c r="D34" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>16.229000091552734</v>
+      </c>
+      <c r="C35" t="n">
+        <v>9.319999694824219</v>
+      </c>
+      <c r="D35" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.2940000295639038</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7.348999977111816</v>
+      </c>
+      <c r="D36" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-26.40399932861328</v>
+      </c>
+      <c r="C37" t="n">
+        <v>29.52899932861328</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.3520002365112305</v>
+      </c>
+      <c r="C38" t="n">
+        <v>14.6850004196167</v>
+      </c>
+      <c r="D38" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-50.665000915527344</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-23.125999450683594</v>
+      </c>
+      <c r="D39" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-22.83300018310547</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-9.814000129699707</v>
+      </c>
+      <c r="D40" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-71.0999984741211</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-18.615999221801758</v>
+      </c>
+      <c r="D41" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-7.848999977111816</v>
+      </c>
+      <c r="C42" t="n">
+        <v>32.07400131225586</v>
+      </c>
+      <c r="D42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>11.876999855041504</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-24.933000564575195</v>
+      </c>
+      <c r="D43" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-18.927000045776367</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-23.729999542236328</v>
+      </c>
+      <c r="D44" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-11.920000076293945</v>
+      </c>
+      <c r="C45" t="n">
+        <v>11.755000114440918</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>29.84000015258789</v>
+      </c>
+      <c r="C46" t="n">
+        <v>11.633000373840332</v>
+      </c>
+      <c r="D46" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>12.267999649047852</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-55.81100082397461</v>
+      </c>
+      <c r="D47" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-37.93299865722656</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-21.613000869750977</v>
+      </c>
+      <c r="D48" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
